--- a/public/translate_basic.xlsx
+++ b/public/translate_basic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="en_GB" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="908">
   <si>
     <t xml:space="preserve">category_id</t>
   </si>
@@ -2338,19 +2338,37 @@
     <t xml:space="preserve">ar_products</t>
   </si>
   <si>
+    <t xml:space="preserve">المنتجات الخاصة بنا</t>
+  </si>
+  <si>
     <t xml:space="preserve">ar_company</t>
   </si>
   <si>
+    <t xml:space="preserve">الشركة الخاصة بنا</t>
+  </si>
+  <si>
     <t xml:space="preserve">ar_founder</t>
   </si>
   <si>
+    <t xml:space="preserve">المؤسس</t>
+  </si>
+  <si>
     <t xml:space="preserve">ar_make exclusive order</t>
   </si>
   <si>
+    <t xml:space="preserve">عمل طلبية حصرية</t>
+  </si>
+  <si>
     <t xml:space="preserve">ar_partnership program</t>
   </si>
   <si>
+    <t xml:space="preserve">برنامج الشراكة الخاص بنا</t>
+  </si>
+  <si>
     <t xml:space="preserve">ar_charity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">العروض الخاصة بنا</t>
   </si>
   <si>
     <t xml:space="preserve">ar_contacts</t>
@@ -2959,7 +2977,7 @@
   </sheetPr>
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7073,10 +7091,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I54" activeCellId="0" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7848,35 +7866,56 @@
       <c r="M48" s="7" t="s">
         <v>769</v>
       </c>
+      <c r="O48" s="7" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M49" s="8" t="s">
-        <v>770</v>
+        <v>771</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M50" s="7" t="s">
-        <v>771</v>
+        <v>773</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M51" s="8" t="s">
-        <v>772</v>
+        <v>775</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M52" s="7" t="s">
-        <v>773</v>
+        <v>777</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M53" s="8" t="s">
-        <v>774</v>
+        <v>779</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M54" s="7" t="s">
-        <v>775</v>
+        <v>781</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -7943,22 +7982,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="G2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7966,22 +8005,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7989,22 +8028,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8012,16 +8051,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8029,16 +8068,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8046,16 +8085,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8063,16 +8102,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>7</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8080,16 +8119,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>37</v>
@@ -8103,22 +8142,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>9</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8126,22 +8165,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8149,22 +8188,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>11</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8172,22 +8211,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8195,22 +8234,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>13</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>58</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8218,16 +8257,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8235,16 +8274,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>15</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8252,16 +8291,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8269,16 +8308,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>17</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8286,16 +8325,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>75</v>
@@ -8309,22 +8348,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>19</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>79</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8332,22 +8371,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>20</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8357,16 +8396,16 @@
         <v>21</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8375,16 +8414,16 @@
         <v>22</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8394,10 +8433,10 @@
         <v>23</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8406,10 +8445,10 @@
         <v>24</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8419,10 +8458,10 @@
         <v>25</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8431,10 +8470,10 @@
         <v>26</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8444,10 +8483,10 @@
         <v>27</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>102</v>
@@ -8462,16 +8501,16 @@
         <v>28</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8481,16 +8520,16 @@
         <v>29</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>79</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8499,16 +8538,16 @@
         <v>30</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8518,16 +8557,16 @@
         <v>31</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8536,16 +8575,16 @@
         <v>32</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8555,10 +8594,10 @@
         <v>33</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8567,10 +8606,10 @@
         <v>34</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8580,10 +8619,10 @@
         <v>35</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8592,10 +8631,10 @@
         <v>36</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8605,10 +8644,10 @@
         <v>37</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>129</v>
@@ -8623,16 +8662,16 @@
         <v>38</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8642,16 +8681,16 @@
         <v>39</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8659,7 +8698,7 @@
         <v>15</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8667,7 +8706,7 @@
         <v>20</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8677,37 +8716,37 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M48" s="7" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M49" s="8" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M50" s="7" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M51" s="8" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M52" s="7" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M53" s="8" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M54" s="7" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
     </row>
   </sheetData>

--- a/public/translate_basic.xlsx
+++ b/public/translate_basic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="en_GB" sheetId="1" state="visible" r:id="rId2"/>
@@ -2759,7 +2759,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2785,6 +2785,14 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFCE181E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2857,7 +2865,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2878,11 +2886,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2894,7 +2902,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2911,7 +2927,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -2977,7 +2993,7 @@
   </sheetPr>
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3065,19 +3081,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -3105,19 +3121,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3139,19 +3155,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3179,19 +3195,19 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="10" t="s">
         <v>40</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -3225,19 +3241,19 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="10" t="s">
         <v>49</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -3271,25 +3287,25 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="10" t="s">
         <v>57</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3311,19 +3327,19 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3345,19 +3361,19 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3385,19 +3401,19 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="10" t="s">
         <v>78</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -3431,15 +3447,15 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="G22" s="5" t="n">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="G22" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="10" t="s">
         <v>86</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -3467,15 +3483,15 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="G24" s="5" t="n">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="G24" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="10" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3491,15 +3507,15 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="G26" s="5" t="n">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="G26" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3515,15 +3531,15 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="G28" s="5" t="n">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="G28" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="10" t="s">
         <v>101</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -3551,15 +3567,15 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="G30" s="5" t="n">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="G30" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="10" t="s">
         <v>108</v>
       </c>
       <c r="L30" s="2" t="s">
@@ -3587,15 +3603,15 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="G32" s="5" t="n">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="G32" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="10" t="s">
         <v>114</v>
       </c>
       <c r="L32" s="2" t="s">
@@ -3623,15 +3639,15 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="G34" s="5" t="n">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="G34" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="10" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3647,15 +3663,15 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="G36" s="5" t="n">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="G36" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="10" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3671,15 +3687,15 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="G38" s="5" t="n">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="G38" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="10" t="s">
         <v>128</v>
       </c>
       <c r="L38" s="2" t="s">
@@ -3707,15 +3723,15 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="G40" s="5" t="n">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="G40" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="10" t="s">
         <v>134</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -3890,19 +3906,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="10" t="s">
         <v>156</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -3930,19 +3946,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="10" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3964,19 +3980,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="10" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4004,19 +4020,19 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="10" t="s">
         <v>175</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -4050,19 +4066,19 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="10" t="s">
         <v>183</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -4096,25 +4112,25 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="10" t="s">
         <v>191</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="11" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4136,19 +4152,19 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="10" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4170,19 +4186,19 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="10" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4210,19 +4226,19 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="10" t="s">
         <v>210</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -4256,15 +4272,15 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="G22" s="5" t="n">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="G22" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="10" t="s">
         <v>217</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -4292,15 +4308,15 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="G24" s="5" t="n">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="G24" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="10" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4316,15 +4332,15 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="G26" s="5" t="n">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="G26" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="10" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4340,15 +4356,15 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="G28" s="5" t="n">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="G28" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="10" t="s">
         <v>231</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -4376,15 +4392,15 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="G30" s="5" t="n">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="G30" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="10" t="s">
         <v>236</v>
       </c>
       <c r="L30" s="2" t="s">
@@ -4412,15 +4428,15 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="G32" s="5" t="n">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="G32" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="10" t="s">
         <v>242</v>
       </c>
       <c r="L32" s="2" t="s">
@@ -4448,15 +4464,15 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="G34" s="5" t="n">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="G34" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="10" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4472,15 +4488,15 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="G36" s="5" t="n">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="G36" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="10" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4496,15 +4512,15 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="G38" s="5" t="n">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="G38" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="10" t="s">
         <v>256</v>
       </c>
       <c r="L38" s="2" t="s">
@@ -4532,15 +4548,15 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="G40" s="5" t="n">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="G40" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="10" t="s">
         <v>261</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -4715,19 +4731,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="10" t="s">
         <v>282</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -4755,19 +4771,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="10" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4789,19 +4805,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="10" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4829,19 +4845,19 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="10" t="s">
         <v>301</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -4875,19 +4891,19 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="10" t="s">
         <v>309</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -4921,25 +4937,25 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="10" t="s">
         <v>317</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="11" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4961,19 +4977,19 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="10" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4995,19 +5011,19 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="10" t="s">
         <v>330</v>
       </c>
     </row>
@@ -5035,19 +5051,19 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="10" t="s">
         <v>336</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -5081,15 +5097,15 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="G22" s="5" t="n">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="G22" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="10" t="s">
         <v>343</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -5117,15 +5133,15 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="G24" s="5" t="n">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="G24" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="10" t="s">
         <v>349</v>
       </c>
     </row>
@@ -5141,15 +5157,15 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="G26" s="5" t="n">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="G26" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="10" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5165,15 +5181,15 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="G28" s="5" t="n">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="G28" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="10" t="s">
         <v>357</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -5201,15 +5217,15 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="G30" s="5" t="n">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="G30" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="10" t="s">
         <v>362</v>
       </c>
       <c r="L30" s="2" t="s">
@@ -5237,15 +5253,15 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="G32" s="5" t="n">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="G32" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="10" t="s">
         <v>368</v>
       </c>
       <c r="L32" s="2" t="s">
@@ -5273,15 +5289,15 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="G34" s="5" t="n">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="G34" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="10" t="s">
         <v>374</v>
       </c>
     </row>
@@ -5297,15 +5313,15 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="G36" s="5" t="n">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="G36" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="10" t="s">
         <v>378</v>
       </c>
     </row>
@@ -5321,15 +5337,15 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="G38" s="5" t="n">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="G38" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="10" t="s">
         <v>382</v>
       </c>
       <c r="L38" s="2" t="s">
@@ -5357,15 +5373,15 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="G40" s="5" t="n">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="G40" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="10" t="s">
         <v>387</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -5537,19 +5553,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="10" t="s">
         <v>408</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -5577,19 +5593,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="10" t="s">
         <v>415</v>
       </c>
     </row>
@@ -5611,19 +5627,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="10" t="s">
         <v>421</v>
       </c>
     </row>
@@ -5651,19 +5667,19 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="10" t="s">
         <v>427</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -5697,19 +5713,19 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="10" t="s">
         <v>435</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -5743,25 +5759,25 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="10" t="s">
         <v>443</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="11" t="s">
         <v>444</v>
       </c>
     </row>
@@ -5783,19 +5799,19 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="10" t="s">
         <v>450</v>
       </c>
     </row>
@@ -5817,19 +5833,19 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="10" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5857,19 +5873,19 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="10" t="s">
         <v>462</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -5903,15 +5919,15 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="G22" s="5" t="n">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="G22" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="10" t="s">
         <v>469</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -5939,15 +5955,15 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="G24" s="5" t="n">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="G24" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="10" t="s">
         <v>475</v>
       </c>
     </row>
@@ -5963,15 +5979,15 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="G26" s="5" t="n">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="G26" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="10" t="s">
         <v>479</v>
       </c>
     </row>
@@ -5987,15 +6003,15 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="G28" s="5" t="n">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="G28" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="10" t="s">
         <v>483</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -6023,15 +6039,15 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="G30" s="5" t="n">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="G30" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="10" t="s">
         <v>488</v>
       </c>
       <c r="L30" s="2" t="s">
@@ -6059,15 +6075,15 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="G32" s="5" t="n">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="G32" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="10" t="s">
         <v>494</v>
       </c>
       <c r="L32" s="2" t="s">
@@ -6095,15 +6111,15 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="G34" s="5" t="n">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="G34" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="10" t="s">
         <v>500</v>
       </c>
     </row>
@@ -6119,15 +6135,15 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="G36" s="5" t="n">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="G36" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="10" t="s">
         <v>504</v>
       </c>
     </row>
@@ -6143,15 +6159,15 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="G38" s="5" t="n">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="G38" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="10" t="s">
         <v>508</v>
       </c>
       <c r="L38" s="2" t="s">
@@ -6179,15 +6195,15 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="G40" s="5" t="n">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="G40" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="10" t="s">
         <v>513</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -6359,19 +6375,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="10" t="s">
         <v>534</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -6399,19 +6415,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="10" t="s">
         <v>541</v>
       </c>
     </row>
@@ -6433,19 +6449,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="10" t="s">
         <v>547</v>
       </c>
     </row>
@@ -6473,19 +6489,19 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="10" t="s">
         <v>553</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -6519,19 +6535,19 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="10" t="s">
         <v>561</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -6565,25 +6581,25 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="10" t="s">
         <v>569</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="11" t="s">
         <v>570</v>
       </c>
     </row>
@@ -6605,19 +6621,19 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="10" t="s">
         <v>576</v>
       </c>
     </row>
@@ -6639,19 +6655,19 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="10" t="s">
         <v>582</v>
       </c>
     </row>
@@ -6679,19 +6695,19 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="10" t="s">
         <v>588</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -6725,15 +6741,15 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="G22" s="5" t="n">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="G22" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="10" t="s">
         <v>595</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -6761,15 +6777,15 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="G24" s="5" t="n">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="G24" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="10" t="s">
         <v>601</v>
       </c>
     </row>
@@ -6785,15 +6801,15 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="G26" s="5" t="n">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="G26" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="10" t="s">
         <v>605</v>
       </c>
     </row>
@@ -6809,15 +6825,15 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="G28" s="5" t="n">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="G28" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="10" t="s">
         <v>609</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -6845,15 +6861,15 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="G30" s="5" t="n">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="G30" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="10" t="s">
         <v>614</v>
       </c>
       <c r="L30" s="2" t="s">
@@ -6881,15 +6897,15 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="G32" s="5" t="n">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="G32" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="10" t="s">
         <v>620</v>
       </c>
       <c r="L32" s="2" t="s">
@@ -6917,15 +6933,15 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="G34" s="5" t="n">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="G34" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="10" t="s">
         <v>626</v>
       </c>
     </row>
@@ -6941,15 +6957,15 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="G36" s="5" t="n">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="G36" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="10" t="s">
         <v>630</v>
       </c>
     </row>
@@ -6965,15 +6981,15 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="G38" s="5" t="n">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="G38" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="10" t="s">
         <v>634</v>
       </c>
       <c r="L38" s="2" t="s">
@@ -7001,15 +7017,15 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="G40" s="5" t="n">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="G40" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="10" t="s">
         <v>639</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -7093,8 +7109,8 @@
   </sheetPr>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I54" activeCellId="0" sqref="I54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7181,19 +7197,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="10" t="s">
         <v>660</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -7221,19 +7237,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="10" t="s">
         <v>667</v>
       </c>
     </row>
@@ -7255,19 +7271,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="10" t="s">
         <v>673</v>
       </c>
     </row>
@@ -7295,19 +7311,19 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="10" t="s">
         <v>679</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -7341,19 +7357,19 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="10" t="s">
         <v>687</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -7387,25 +7403,25 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="10" t="s">
         <v>695</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="11" t="s">
         <v>696</v>
       </c>
     </row>
@@ -7427,19 +7443,19 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="10" t="s">
         <v>702</v>
       </c>
     </row>
@@ -7461,19 +7477,19 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="10" t="s">
         <v>708</v>
       </c>
     </row>
@@ -7501,19 +7517,19 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="10" t="s">
         <v>712</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="10" t="s">
         <v>714</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -7547,15 +7563,15 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="G22" s="5" t="n">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="G22" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="10" t="s">
         <v>720</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="10" t="s">
         <v>721</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -7583,15 +7599,15 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="G24" s="5" t="n">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="G24" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="10" t="s">
         <v>727</v>
       </c>
     </row>
@@ -7607,15 +7623,15 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="G26" s="5" t="n">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="G26" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="10" t="s">
         <v>730</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="10" t="s">
         <v>731</v>
       </c>
     </row>
@@ -7631,15 +7647,15 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="G28" s="5" t="n">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="G28" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="10" t="s">
         <v>735</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -7667,15 +7683,15 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="G30" s="5" t="n">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="G30" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="10" t="s">
         <v>739</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="10" t="s">
         <v>740</v>
       </c>
       <c r="L30" s="2" t="s">
@@ -7703,15 +7719,15 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="G32" s="5" t="n">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="G32" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="10" t="s">
         <v>745</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="10" t="s">
         <v>746</v>
       </c>
       <c r="L32" s="2" t="s">
@@ -7739,15 +7755,15 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="G34" s="5" t="n">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="G34" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="10" t="s">
         <v>751</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="10" t="s">
         <v>752</v>
       </c>
     </row>
@@ -7763,15 +7779,15 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="G36" s="5" t="n">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="G36" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="10" t="s">
         <v>755</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="10" t="s">
         <v>756</v>
       </c>
     </row>
@@ -7787,15 +7803,15 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="G38" s="5" t="n">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="G38" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="10" t="s">
         <v>759</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="10" t="s">
         <v>760</v>
       </c>
       <c r="L38" s="2" t="s">
@@ -7823,15 +7839,15 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="G40" s="5" t="n">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="G40" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="10" t="s">
         <v>765</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -8024,19 +8040,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>790</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="10" t="s">
         <v>792</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -8064,19 +8080,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="10" t="s">
         <v>798</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="10" t="s">
         <v>799</v>
       </c>
     </row>
@@ -8098,19 +8114,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="10" t="s">
         <v>805</v>
       </c>
     </row>
@@ -8138,19 +8154,19 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>809</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="10" t="s">
         <v>811</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -8184,19 +8200,19 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>817</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="10" t="s">
         <v>818</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="10" t="s">
         <v>819</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -8230,25 +8246,25 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>825</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="10" t="s">
         <v>826</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="10" t="s">
         <v>827</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="11" t="s">
         <v>828</v>
       </c>
     </row>
@@ -8270,19 +8286,19 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="10" t="s">
         <v>832</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="10" t="s">
         <v>833</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="10" t="s">
         <v>834</v>
       </c>
     </row>
@@ -8304,19 +8320,19 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="10" t="s">
         <v>838</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="10" t="s">
         <v>839</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="10" t="s">
         <v>840</v>
       </c>
     </row>
@@ -8344,19 +8360,19 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="10" t="s">
         <v>844</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="10" t="s">
         <v>846</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -8390,15 +8406,15 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="G22" s="5" t="n">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="G22" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="10" t="s">
         <v>852</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="10" t="s">
         <v>853</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -8427,15 +8443,15 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="G24" s="5" t="n">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="G24" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="10" t="s">
         <v>858</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="10" t="s">
         <v>859</v>
       </c>
     </row>
@@ -8452,15 +8468,15 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="G26" s="5" t="n">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="G26" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="10" t="s">
         <v>862</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="10" t="s">
         <v>863</v>
       </c>
     </row>
@@ -8477,15 +8493,15 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="G28" s="5" t="n">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="G28" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="10" t="s">
         <v>866</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="10" t="s">
         <v>867</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -8514,15 +8530,15 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="G30" s="5" t="n">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="G30" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="10" t="s">
         <v>871</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="10" t="s">
         <v>872</v>
       </c>
       <c r="L30" s="2" t="s">
@@ -8551,15 +8567,15 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="G32" s="5" t="n">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="G32" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="10" t="s">
         <v>878</v>
       </c>
       <c r="L32" s="2" t="s">
@@ -8588,15 +8604,15 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="G34" s="5" t="n">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="G34" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="10" t="s">
         <v>883</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="10" t="s">
         <v>884</v>
       </c>
     </row>
@@ -8613,15 +8629,15 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="G36" s="5" t="n">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="G36" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="10" t="s">
         <v>887</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="10" t="s">
         <v>888</v>
       </c>
     </row>
@@ -8638,15 +8654,15 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="G38" s="5" t="n">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="G38" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="10" t="s">
         <v>892</v>
       </c>
       <c r="L38" s="2" t="s">
@@ -8675,15 +8691,15 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="G40" s="5" t="n">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="G40" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="10" t="s">
         <v>897</v>
       </c>
       <c r="L40" s="2" t="s">

--- a/public/translate_basic.xlsx
+++ b/public/translate_basic.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="437">
   <si>
     <t xml:space="preserve">category_id</t>
   </si>
@@ -83,12 +83,6 @@
     <t xml:space="preserve">en_sorghum</t>
   </si>
   <si>
-    <t xml:space="preserve">en_sorghum_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_sorghum_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">PARAGRAPH_2</t>
   </si>
   <si>
@@ -104,12 +98,6 @@
     <t xml:space="preserve">en_beans</t>
   </si>
   <si>
-    <t xml:space="preserve">en_sorghum_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_sorghum_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">PARAGRAPH_3</t>
   </si>
   <si>
@@ -125,60 +113,24 @@
     <t xml:space="preserve">en_mustard</t>
   </si>
   <si>
-    <t xml:space="preserve">en_beans_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_beans_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">en_chickpea</t>
   </si>
   <si>
-    <t xml:space="preserve">en_beans_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_beans_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">en_linen(grain)</t>
   </si>
   <si>
-    <t xml:space="preserve">en_mustard_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_mustard_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">en_red &amp; green lentils</t>
   </si>
   <si>
-    <t xml:space="preserve">en_mustard_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_mustard_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">en_coriander</t>
   </si>
   <si>
-    <t xml:space="preserve">en_chickpea_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_chickpea_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">FOUNDER</t>
   </si>
   <si>
     <t xml:space="preserve">en_millet</t>
   </si>
   <si>
-    <t xml:space="preserve">en_chickpea_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_chickpea_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">TITLE</t>
   </si>
   <si>
@@ -188,105 +140,45 @@
     <t xml:space="preserve">en_lupine</t>
   </si>
   <si>
-    <t xml:space="preserve">en_linen(grain)_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_linen(grain)_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">en_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
   </si>
   <si>
     <t xml:space="preserve">en_spelt</t>
   </si>
   <si>
-    <t xml:space="preserve">en_linen(grain)_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_linen(grain)_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">en_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
   </si>
   <si>
     <t xml:space="preserve">en_safflower</t>
   </si>
   <si>
-    <t xml:space="preserve">en_red &amp; green lentils_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_red &amp; green lentils_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">en_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
   </si>
   <si>
     <t xml:space="preserve">en_wheat common</t>
   </si>
   <si>
-    <t xml:space="preserve">en_red &amp; green lentils_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_red &amp; green lentils_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">en_oat</t>
   </si>
   <si>
-    <t xml:space="preserve">en_coriander_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_coriander_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">en_potato</t>
   </si>
   <si>
-    <t xml:space="preserve">en_coriander_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_coriander_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">en_rapeseed</t>
   </si>
   <si>
-    <t xml:space="preserve">en_millet_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_millet_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">en_sunflower</t>
   </si>
   <si>
-    <t xml:space="preserve">en_millet_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_millet_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">en_barley</t>
   </si>
   <si>
-    <t xml:space="preserve">en_lupine_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_lupine_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">PARTNERSHIP</t>
   </si>
   <si>
     <t xml:space="preserve">en_corn</t>
   </si>
   <si>
-    <t xml:space="preserve">en_lupine_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_lupine_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">first_TITLE</t>
   </si>
   <si>
@@ -296,153 +188,33 @@
     <t xml:space="preserve">en_soybean</t>
   </si>
   <si>
-    <t xml:space="preserve">en_spelt_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_spelt_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">en_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
   </si>
   <si>
-    <t xml:space="preserve">en_spelt_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_spelt_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">en_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
   </si>
   <si>
-    <t xml:space="preserve">en_safflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_safflower_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">second_TITLE</t>
   </si>
   <si>
     <t xml:space="preserve">en_Please contact about our partnership program:</t>
   </si>
   <si>
-    <t xml:space="preserve">en_safflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_safflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_wheat common_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_wheat common_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_wheat common_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_wheat common_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_oat_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_oat_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_oat_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_oat_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHARITY</t>
   </si>
   <si>
-    <t xml:space="preserve">en_potato_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_potato_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">GLOBAL TITLE</t>
   </si>
   <si>
     <t xml:space="preserve">en_"AgroMax trades with products for health food industry and does the support to health..".</t>
   </si>
   <si>
-    <t xml:space="preserve">en_potato_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_potato_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_rapeseed_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_rapeseed_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_rapeseed_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_rapeseed_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_sunflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_sunflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_sunflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_sunflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_barley_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_barley_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_barley_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_barley_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_corn_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_corn_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_corn_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_corn_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">CONTACTS</t>
   </si>
   <si>
-    <t xml:space="preserve">en_soybean_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_soybean_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">en_Please contact:</t>
   </si>
   <si>
-    <t xml:space="preserve">en_soybean_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_en_GB_soybean_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">en_About membership in professional associations and business events:</t>
   </si>
   <si>
@@ -500,12 +272,6 @@
     <t xml:space="preserve">de_sorghum</t>
   </si>
   <si>
-    <t xml:space="preserve">de_sorghum_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_sorghum_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_Our company headquartered in Sofia ( Bulgaria) and has its operational offices in Kharkov( Ukraine) and in Romania.</t>
   </si>
   <si>
@@ -518,12 +284,6 @@
     <t xml:space="preserve">de_beans</t>
   </si>
   <si>
-    <t xml:space="preserve">de_sorghum_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_sorghum_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_Our market mission - to facilitate the trade with agricultures for health food industry from  Black Sea countries' farms.</t>
   </si>
   <si>
@@ -536,300 +296,84 @@
     <t xml:space="preserve">de_mustard</t>
   </si>
   <si>
-    <t xml:space="preserve">de_beans_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_beans_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_chickpea</t>
   </si>
   <si>
-    <t xml:space="preserve">de_beans_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_beans_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_linen(grain)</t>
   </si>
   <si>
-    <t xml:space="preserve">de_mustard_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_mustard_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_red &amp; green lentils</t>
   </si>
   <si>
-    <t xml:space="preserve">de_mustard_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_mustard_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_coriander</t>
   </si>
   <si>
-    <t xml:space="preserve">de_chickpea_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_chickpea_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_millet</t>
   </si>
   <si>
-    <t xml:space="preserve">de_chickpea_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_chickpea_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_Hello friends, My name is Maksym Ratner, below is my story…</t>
   </si>
   <si>
     <t xml:space="preserve">de_lupine</t>
   </si>
   <si>
-    <t xml:space="preserve">de_linen(grain)_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_linen(grain)_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
   </si>
   <si>
     <t xml:space="preserve">de_spelt</t>
   </si>
   <si>
-    <t xml:space="preserve">de_linen(grain)_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_linen(grain)_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
   </si>
   <si>
     <t xml:space="preserve">de_safflower</t>
   </si>
   <si>
-    <t xml:space="preserve">de_red &amp; green lentils_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_red &amp; green lentils_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
   </si>
   <si>
     <t xml:space="preserve">de_wheat common</t>
   </si>
   <si>
-    <t xml:space="preserve">de_red &amp; green lentils_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_red &amp; green lentils_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_oat</t>
   </si>
   <si>
-    <t xml:space="preserve">de_coriander_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_coriander_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_potato</t>
   </si>
   <si>
-    <t xml:space="preserve">de_coriander_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_coriander_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_rapeseed</t>
   </si>
   <si>
-    <t xml:space="preserve">de_millet_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_millet_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_sunflower</t>
   </si>
   <si>
-    <t xml:space="preserve">de_millet_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_millet_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_barley</t>
   </si>
   <si>
-    <t xml:space="preserve">de_lupine_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_lupine_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_corn</t>
   </si>
   <si>
-    <t xml:space="preserve">de_lupine_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_lupine_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_Our partnership program</t>
   </si>
   <si>
     <t xml:space="preserve">de_soybean</t>
   </si>
   <si>
-    <t xml:space="preserve">de_spelt_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_spelt_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
   </si>
   <si>
-    <t xml:space="preserve">de_spelt_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_spelt_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
   </si>
   <si>
-    <t xml:space="preserve">de_safflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_safflower_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_Please contact about our partnership program:</t>
   </si>
   <si>
-    <t xml:space="preserve">de_safflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_safflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_wheat common_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_wheat common_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_wheat common_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_wheat common_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_oat_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_oat_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_oat_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_oat_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_potato_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_potato_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_"AgroMax trades with products for health food industry and does the support to health..".</t>
   </si>
   <si>
-    <t xml:space="preserve">de_potato_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_potato_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_rapeseed_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_rapeseed_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_rapeseed_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_rapeseed_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_sunflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_sunflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_sunflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_sunflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_barley_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_barley_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_barley_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_barley_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_corn_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_corn_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_corn_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_corn_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_soybean_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_soybean_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_Please contact:</t>
   </si>
   <si>
-    <t xml:space="preserve">de_soybean_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_de_DE_soybean_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">de_About membership in professional associations and business events:</t>
   </si>
   <si>
@@ -884,12 +428,6 @@
     <t xml:space="preserve">tr_sorghum</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_sorghum_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_sorghum_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_Our company headquartered in Sofia ( Bulgaria) and has its operational offices in Kharkov( Ukraine) and in Romania.</t>
   </si>
   <si>
@@ -902,12 +440,6 @@
     <t xml:space="preserve">tr_beans</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_sorghum_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_sorghum_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_Our market mission - to facilitate the trade with agricultures for health food industry from  Black Sea countries' farms.</t>
   </si>
   <si>
@@ -920,300 +452,84 @@
     <t xml:space="preserve">tr_mustard</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_beans_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_beans_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_chickpea</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_beans_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_beans_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_linen(grain)</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_mustard_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_mustard_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_red &amp; green lentils</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_mustard_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_mustard_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_coriander</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_chickpea_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_chickpea_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_millet</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_chickpea_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_chickpea_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_Hello friends, My name is Maksym Ratner, below is my story…</t>
   </si>
   <si>
     <t xml:space="preserve">tr_lupine</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_linen(grain)_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_linen(grain)_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
   </si>
   <si>
     <t xml:space="preserve">tr_spelt</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_linen(grain)_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_linen(grain)_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
   </si>
   <si>
     <t xml:space="preserve">tr_safflower</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_red &amp; green lentils_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_red &amp; green lentils_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
   </si>
   <si>
     <t xml:space="preserve">tr_wheat common</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_red &amp; green lentils_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_red &amp; green lentils_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_oat</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_coriander_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_coriander_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_potato</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_coriander_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_coriander_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_rapeseed</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_millet_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_millet_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_sunflower</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_millet_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_millet_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_barley</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_lupine_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_lupine_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_corn</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_lupine_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_lupine_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_Our partnership program</t>
   </si>
   <si>
     <t xml:space="preserve">tr_soybean</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_spelt_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_spelt_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_spelt_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_spelt_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_safflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_safflower_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_Please contact about our partnership program:</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_safflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_safflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_wheat common_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_wheat common_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_wheat common_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_wheat common_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_oat_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_oat_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_oat_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_oat_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_potato_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_potato_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_"AgroMax trades with products for health food industry and does the support to health..".</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_potato_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_potato_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_rapeseed_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_rapeseed_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_rapeseed_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_rapeseed_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_sunflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_sunflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_sunflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_sunflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_barley_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_barley_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_barley_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_barley_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_corn_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_corn_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_corn_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_corn_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_soybean_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_soybean_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_Please contact:</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_soybean_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_tr_TR_soybean_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">tr_About membership in professional associations and business events:</t>
   </si>
   <si>
@@ -1268,12 +584,6 @@
     <t xml:space="preserve">it_sorghum</t>
   </si>
   <si>
-    <t xml:space="preserve">it_sorghum_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_sorghum_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Il nostro quartier generale si trova a Sofia (Bulgaria) e gli uffici operativi sono situati a Kharkov (Ucraina) e in Romania.</t>
   </si>
   <si>
@@ -1286,12 +596,6 @@
     <t xml:space="preserve">it_beans123123</t>
   </si>
   <si>
-    <t xml:space="preserve">it_sorghum_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_sorghum_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">La nostra mission è quella di facilitare il commercio di cerali e di prodotti agroalimentari per l’industria alimentare che provengono dalle aziende agricole dei paesi del Mar Nero.</t>
   </si>
   <si>
@@ -1304,306 +608,87 @@
     <t xml:space="preserve">it_mustard</t>
   </si>
   <si>
-    <t xml:space="preserve">it_beans_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_beans_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_chickpea</t>
   </si>
   <si>
-    <t xml:space="preserve">it_beans_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_beans_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_linen(grain)</t>
   </si>
   <si>
-    <t xml:space="preserve">it_mustard_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_mustard_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_red &amp; green lentils</t>
   </si>
   <si>
-    <t xml:space="preserve">it_mustard_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_mustard_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_coriander</t>
   </si>
   <si>
-    <t xml:space="preserve">it_chickpea_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_chickpea_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_millet</t>
   </si>
   <si>
-    <t xml:space="preserve">it_chickpea_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_chickpea_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_Hello friends, My name is Maksym Ratner, below is my story…</t>
   </si>
   <si>
     <t xml:space="preserve">it_lupine</t>
   </si>
   <si>
-    <t xml:space="preserve">it_linen(grain)_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_linen(grain)_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
   </si>
   <si>
     <t xml:space="preserve">it_spelt</t>
   </si>
   <si>
-    <t xml:space="preserve">it_linen(grain)_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_linen(grain)_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
   </si>
   <si>
     <t xml:space="preserve">it_safflower</t>
   </si>
   <si>
-    <t xml:space="preserve">it_red &amp; green lentils_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_red &amp; green lentils_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
   </si>
   <si>
     <t xml:space="preserve">it_wheat common</t>
   </si>
   <si>
-    <t xml:space="preserve">it_red &amp; green lentils_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_red &amp; green lentils_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_oat</t>
   </si>
   <si>
-    <t xml:space="preserve">it_coriander_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_coriander_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_potato</t>
   </si>
   <si>
-    <t xml:space="preserve">it_coriander_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_coriander_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_rapeseed</t>
   </si>
   <si>
-    <t xml:space="preserve">it_millet_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_millet_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_sunflower</t>
   </si>
   <si>
-    <t xml:space="preserve">it_millet_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_millet_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_barley</t>
   </si>
   <si>
-    <t xml:space="preserve">it_lupine_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_lupine_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_corn</t>
   </si>
   <si>
-    <t xml:space="preserve">it_lupine_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_lupine_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_Our partnership program</t>
   </si>
   <si>
     <t xml:space="preserve">it_soybean</t>
   </si>
   <si>
-    <t xml:space="preserve">it_spelt_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_spelt_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
   </si>
   <si>
-    <t xml:space="preserve">it_spelt_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_spelt_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
   </si>
   <si>
-    <t xml:space="preserve">it_safflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_safflower_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_Please contact about our partnership program:</t>
   </si>
   <si>
-    <t xml:space="preserve">it_safflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_safflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_wheat common_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_wheat common_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_wheat common_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_wheat common_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_oat_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_oat_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_oat_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_oat_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_potato_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_potato_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_"AgroMax trades with products for health food industry and does the support to health..".</t>
   </si>
   <si>
-    <t xml:space="preserve">it_potato_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_potato_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_rapeseed_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_rapeseed_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_rapeseed_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_rapeseed_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_sunflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_sunflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_sunflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_sunflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_barley_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_barley_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_barley_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_barley_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_corn_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_corn_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_corn_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_corn_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_soybean_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_soybean_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_Please contact:</t>
   </si>
   <si>
-    <t xml:space="preserve">it_soybean_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_it_IT_soybean_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">it_About membership in professional associations and business events:</t>
   </si>
   <si>
-    <t xml:space="preserve">Senape (semi) </t>
-  </si>
-  <si>
     <t xml:space="preserve">it_About organizational issues and job:</t>
   </si>
   <si>
@@ -1655,12 +740,6 @@
     <t xml:space="preserve">fr_sorghum</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_sorghum_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_sorghum_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_Our company headquartered in Sofia ( Bulgaria) and has its operational offices in Kharkov( Ukraine) and in Romania.</t>
   </si>
   <si>
@@ -1673,12 +752,6 @@
     <t xml:space="preserve">fr_beans</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_sorghum_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_sorghum_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_Our market mission - to facilitate the trade with agricultures for health food industry from  Black Sea countries' farms.</t>
   </si>
   <si>
@@ -1691,300 +764,84 @@
     <t xml:space="preserve">fr_mustard</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_beans_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_beans_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_chickpea</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_beans_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_beans_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_linen(grain)</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_mustard_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_mustard_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_red &amp; green lentils</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_mustard_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_mustard_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_coriander</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_chickpea_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_chickpea_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_millet</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_chickpea_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_chickpea_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_Hello friends, My name is Maksym Ratner, below is my story…</t>
   </si>
   <si>
     <t xml:space="preserve">fr_lupine</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_linen(grain)_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_linen(grain)_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
   </si>
   <si>
     <t xml:space="preserve">fr_spelt</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_linen(grain)_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_linen(grain)_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
   </si>
   <si>
     <t xml:space="preserve">fr_safflower</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_red &amp; green lentils_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_red &amp; green lentils_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
   </si>
   <si>
     <t xml:space="preserve">fr_wheat common</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_red &amp; green lentils_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_red &amp; green lentils_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_oat</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_coriander_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_coriander_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_potato</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_coriander_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_coriander_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_rapeseed</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_millet_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_millet_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_sunflower</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_millet_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_millet_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_barley</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_lupine_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_lupine_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_corn</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_lupine_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_lupine_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_Our partnership program</t>
   </si>
   <si>
     <t xml:space="preserve">fr_soybean</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_spelt_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_spelt_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_spelt_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_spelt_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_safflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_safflower_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_Please contact about our partnership program:</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_safflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_safflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_wheat common_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_wheat common_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_wheat common_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_wheat common_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_oat_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_oat_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_oat_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_oat_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_potato_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_potato_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_"AgroMax trades with products for health food industry and does the support to health..".</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_potato_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_potato_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_rapeseed_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_rapeseed_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_rapeseed_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_rapeseed_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_sunflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_sunflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_sunflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_sunflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_barley_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_barley_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_barley_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_barley_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_corn_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_corn_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_corn_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_corn_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_soybean_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_soybean_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_Please contact:</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_soybean_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_fr_FR_soybean_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr_About membership in professional associations and business events:</t>
   </si>
   <si>
@@ -2036,12 +893,6 @@
     <t xml:space="preserve">ar_sorghum</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_sorghum_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_sorghum_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_Our company headquartered in Sofia ( Bulgaria) and has its operational offices in Kharkov( Ukraine) and in Romania.</t>
   </si>
   <si>
@@ -2054,12 +905,6 @@
     <t xml:space="preserve">ar_beans</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_sorghum_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_sorghum_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_Our market mission - to facilitate the trade with agricultures for health food industry from  Black Sea countries' farms.</t>
   </si>
   <si>
@@ -2072,300 +917,84 @@
     <t xml:space="preserve">ar_mustard</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_beans_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_beans_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_chickpea</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_beans_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_beans_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_linen(grain)</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_mustard_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_mustard_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_red &amp; green lentils</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_mustard_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_mustard_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_coriander</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_chickpea_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_chickpea_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_millet</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_chickpea_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_chickpea_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_Hello friends, My name is Maksym Ratner, below is my story…</t>
   </si>
   <si>
     <t xml:space="preserve">ar_lupine</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_linen(grain)_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_linen(grain)_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
   </si>
   <si>
     <t xml:space="preserve">ar_spelt</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_linen(grain)_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_linen(grain)_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
   </si>
   <si>
     <t xml:space="preserve">ar_safflower</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_red &amp; green lentils_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_red &amp; green lentils_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
   </si>
   <si>
     <t xml:space="preserve">ar_wheat common</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_red &amp; green lentils_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_red &amp; green lentils_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_oat</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_coriander_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_coriander_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_potato</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_coriander_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_coriander_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_rapeseed</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_millet_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_millet_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_sunflower</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_millet_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_millet_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_barley</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_lupine_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_lupine_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_corn</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_lupine_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_lupine_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_Our partnership program</t>
   </si>
   <si>
     <t xml:space="preserve">ar_soybean</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_spelt_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_spelt_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_spelt_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_spelt_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_safflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_safflower_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_Please contact about our partnership program:</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_safflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_safflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_wheat common_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_wheat common_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_wheat common_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_wheat common_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_oat_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_oat_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_oat_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_oat_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_potato_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_potato_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_"AgroMax trades with products for health food industry and does the support to health..".</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_potato_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_potato_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_rapeseed_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_rapeseed_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_rapeseed_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_rapeseed_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_sunflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_sunflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_sunflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_sunflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_barley_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_barley_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_barley_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_barley_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_corn_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_corn_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_corn_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_corn_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_soybean_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_soybean_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_Please contact:</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_soybean_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_ar_TN_soybean_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_About membership in professional associations and business events:</t>
   </si>
   <si>
@@ -2378,39 +1007,21 @@
     <t xml:space="preserve">ar_products</t>
   </si>
   <si>
-    <t xml:space="preserve">المنتجات الخاصة بنا</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_company</t>
   </si>
   <si>
-    <t xml:space="preserve">الشركة الخاصة بنا</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_founder</t>
   </si>
   <si>
-    <t xml:space="preserve">المؤسس</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_make exclusive order</t>
   </si>
   <si>
-    <t xml:space="preserve">عمل طلبية حصرية</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_partnership program</t>
   </si>
   <si>
-    <t xml:space="preserve">برنامج الشراكة الخاص بنا</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_charity</t>
   </si>
   <si>
-    <t xml:space="preserve">العروض الخاصة بنا</t>
-  </si>
-  <si>
     <t xml:space="preserve">ar_contacts</t>
   </si>
   <si>
@@ -2438,12 +1049,6 @@
     <t xml:space="preserve">es_sorghum</t>
   </si>
   <si>
-    <t xml:space="preserve">es_sorghum_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_sorghum_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_Our company headquartered in Sofia ( Bulgaria) and has its operational offices in Kharkov( Ukraine) and in Romania.</t>
   </si>
   <si>
@@ -2456,12 +1061,6 @@
     <t xml:space="preserve">es_beans</t>
   </si>
   <si>
-    <t xml:space="preserve">es_sorghum_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_sorghum_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_Our market mission - to facilitate the trade with agricultures for health food industry from  Black Sea countries' farms.</t>
   </si>
   <si>
@@ -2474,300 +1073,84 @@
     <t xml:space="preserve">es_mustard</t>
   </si>
   <si>
-    <t xml:space="preserve">es_beans_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_beans_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_chickpea</t>
   </si>
   <si>
-    <t xml:space="preserve">es_beans_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_beans_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_linen(grain)</t>
   </si>
   <si>
-    <t xml:space="preserve">es_mustard_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_mustard_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_red &amp; green lentils</t>
   </si>
   <si>
-    <t xml:space="preserve">es_mustard_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_mustard_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_coriander</t>
   </si>
   <si>
-    <t xml:space="preserve">es_chickpea_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_chickpea_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_millet</t>
   </si>
   <si>
-    <t xml:space="preserve">es_chickpea_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_chickpea_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_Hello friends, My name is Maksym Ratner, below is my story…</t>
   </si>
   <si>
     <t xml:space="preserve">es_lupine</t>
   </si>
   <si>
-    <t xml:space="preserve">es_linen(grain)_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_linen(grain)_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
   </si>
   <si>
     <t xml:space="preserve">es_spelt</t>
   </si>
   <si>
-    <t xml:space="preserve">es_linen(grain)_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_linen(grain)_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
   </si>
   <si>
     <t xml:space="preserve">es_safflower</t>
   </si>
   <si>
-    <t xml:space="preserve">es_red &amp; green lentils_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_red &amp; green lentils_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
   </si>
   <si>
     <t xml:space="preserve">es_wheat common</t>
   </si>
   <si>
-    <t xml:space="preserve">es_red &amp; green lentils_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_red &amp; green lentils_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_oat</t>
   </si>
   <si>
-    <t xml:space="preserve">es_coriander_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_coriander_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_potato</t>
   </si>
   <si>
-    <t xml:space="preserve">es_coriander_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_coriander_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_rapeseed</t>
   </si>
   <si>
-    <t xml:space="preserve">es_millet_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_millet_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_sunflower</t>
   </si>
   <si>
-    <t xml:space="preserve">es_millet_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_millet_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_barley</t>
   </si>
   <si>
-    <t xml:space="preserve">es_lupine_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_lupine_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_corn</t>
   </si>
   <si>
-    <t xml:space="preserve">es_lupine_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_lupine_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_Our partnership program</t>
   </si>
   <si>
     <t xml:space="preserve">es_soybean</t>
   </si>
   <si>
-    <t xml:space="preserve">es_spelt_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_spelt_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
   </si>
   <si>
-    <t xml:space="preserve">es_spelt_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_spelt_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
   </si>
   <si>
-    <t xml:space="preserve">es_safflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_safflower_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_Please contact about our partnership program:</t>
   </si>
   <si>
-    <t xml:space="preserve">es_safflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_safflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_wheat common_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_wheat common_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_wheat common_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_wheat common_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_oat_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_oat_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_oat_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_oat_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_potato_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_potato_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_"AgroMax trades with products for health food industry and does the support to health..".</t>
   </si>
   <si>
-    <t xml:space="preserve">es_potato_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_potato_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_rapeseed_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_rapeseed_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_rapeseed_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_rapeseed_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_sunflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_sunflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_sunflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_sunflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_barley_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_barley_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_barley_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_barley_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_corn_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_corn_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_corn_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_corn_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_soybean_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_soybean_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_Please contact:</t>
   </si>
   <si>
-    <t xml:space="preserve">es_soybean_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_es_ES_soybean_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">es_About membership in professional associations and business events:</t>
   </si>
   <si>
@@ -2822,12 +1205,6 @@
     <t xml:space="preserve">pt_sorghum</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_sorghum_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRsorghum_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_Our company headquartered in Sofia ( Bulgaria) and has its operational offices in Kharkov( Ukraine) and in Romania.</t>
   </si>
   <si>
@@ -2840,12 +1217,6 @@
     <t xml:space="preserve">pt_beans</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_sorghum_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRsorghum_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_Our market mission - to facilitate the trade with agricultures for health food industry from  Black Sea countries' farms.</t>
   </si>
   <si>
@@ -2858,298 +1229,82 @@
     <t xml:space="preserve">pt_mustard</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_beans_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRbeans_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_chickpea</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_beans_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRbeans_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_linen(grain)</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_mustard_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRmustard_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_red &amp; green lentils</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_mustard_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRmustard_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_coriander</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_chickpea_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRchickpea_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_millet</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_chickpea_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRchickpea_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_Hello friends, My name is Maksym Ratner, below is my story…</t>
   </si>
   <si>
     <t xml:space="preserve">pt_lupine</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_linen(grain)_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRlinen(grain)_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
   </si>
   <si>
     <t xml:space="preserve">pt_spelt</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_linen(grain)_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRlinen(grain)_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
   </si>
   <si>
     <t xml:space="preserve">pt_safflower</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_red &amp; green lentils_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRred &amp; green lentils_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
   </si>
   <si>
     <t xml:space="preserve">pt_wheat common</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_red &amp; green lentils_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRred &amp; green lentils_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_oat</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_coriander_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRcoriander_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_potato</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_coriander_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRcoriander_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_rapeseed</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_millet_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRmillet_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_sunflower</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_millet_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRmillet_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_barley</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_lupine_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRlupine_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_corn</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_lupine_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRlupine_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_Our partnership program</t>
   </si>
   <si>
     <t xml:space="preserve">pt_soybean</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_spelt_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRspelt_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_spelt_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRspelt_№_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_safflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRsafflower_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_Please contact about our partnership program:</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_safflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRsafflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt_wheat common_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRwheat common_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt_wheat common_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRwheat common_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt_oat_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRoat_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt_oat_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRoat_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt_potato_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRpotato_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_"AgroMax trades with products for health food industry and does the support to health..".</t>
   </si>
   <si>
-    <t xml:space="preserve">pt_potato_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRpotato_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt_rapeseed_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRrapeseed_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt_rapeseed_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRrapeseed_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt_sunflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRsunflower_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt_sunflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRsunflower_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt_barley_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRbarley_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt_barley_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRbarley_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt_corn_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRcorn_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt_corn_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRcorn_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt_soybean_№_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRsoybean_№_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">pt_Please contact:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt_soybean_№_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desc_pt_BRsoybean_№_2</t>
   </si>
   <si>
     <t xml:space="preserve">pt_About membership in professional associations and business events:</t>
@@ -3493,26 +1648,20 @@
       <c r="G3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="L3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="M3" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="P3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3520,214 +1669,164 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="L11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
       <c r="L12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>62</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,273 +1834,193 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="H17" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
       <c r="L20" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>90</v>
-      </c>
       <c r="L21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="G22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
       <c r="L22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="L23" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="G24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="G26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="G28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>108</v>
-      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
       <c r="L28" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>111</v>
-      </c>
       <c r="L29" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4010,22 +2029,12 @@
       <c r="G30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>115</v>
-      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G31" s="1" t="n">
         <v>30</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4034,22 +2043,12 @@
       <c r="G32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>119</v>
-      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G33" s="1" t="n">
         <v>32</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4058,162 +2057,128 @@
       <c r="G34" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="H35" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="G36" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="H37" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="G38" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>131</v>
-      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
       <c r="L38" s="2" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="H39" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="L39" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="G40" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>137</v>
-      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
       <c r="L40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L41" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L42" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M47" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M48" s="7" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M49" s="8" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M50" s="7" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M51" s="8" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M52" s="7" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M53" s="8" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M54" s="7" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M55" s="0" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4293,31 +2258,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="G2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="P2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4325,31 +2290,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="P3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4357,31 +2316,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>164</v>
-      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="P4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4389,16 +2344,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,33 +2355,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>173</v>
-      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>6</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4440,36 +2379,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>6</v>
@@ -4480,22 +2409,18 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>185</v>
-      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4503,22 +2428,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>189</v>
-      </c>
       <c r="L11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4526,22 +2445,18 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>193</v>
-      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
       <c r="L12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4549,22 +2464,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>195</v>
+        <v>99</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>197</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>198</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4572,33 +2481,23 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>201</v>
-      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>14</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4606,33 +2505,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>207</v>
-      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>16</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4640,36 +2529,26 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>213</v>
-      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>216</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>6</v>
@@ -4680,22 +2559,18 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>219</v>
-      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
       <c r="L20" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>220</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4703,22 +2578,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>223</v>
-      </c>
       <c r="L21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4727,34 +2596,24 @@
       <c r="G22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>226</v>
-      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
       <c r="L22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>227</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>229</v>
-      </c>
       <c r="L23" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4763,22 +2622,12 @@
       <c r="G24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>232</v>
-      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G25" s="1" t="n">
         <v>24</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,22 +2636,12 @@
       <c r="G26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>236</v>
-      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G27" s="1" t="n">
         <v>26</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4811,14 +2650,10 @@
       <c r="G28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>240</v>
-      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
       <c r="L28" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>6</v>
@@ -4828,17 +2663,11 @@
       <c r="G29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>242</v>
-      </c>
       <c r="L29" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>243</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4847,22 +2676,12 @@
       <c r="G30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>245</v>
-      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G31" s="1" t="n">
         <v>30</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4871,22 +2690,12 @@
       <c r="G32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>249</v>
-      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G33" s="1" t="n">
         <v>32</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4895,22 +2704,12 @@
       <c r="G34" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>253</v>
-      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G35" s="1" t="n">
         <v>34</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4919,22 +2718,12 @@
       <c r="G36" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>257</v>
-      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G37" s="1" t="n">
         <v>36</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4943,14 +2732,10 @@
       <c r="G38" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>261</v>
-      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
       <c r="L38" s="2" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>6</v>
@@ -4960,17 +2745,11 @@
       <c r="G39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="H39" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>263</v>
-      </c>
       <c r="L39" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>264</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4979,78 +2758,74 @@
       <c r="G40" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>266</v>
-      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
       <c r="L40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>267</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L41" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>268</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L42" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>269</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M47" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M48" s="7" t="s">
-        <v>270</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M49" s="8" t="s">
-        <v>271</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M50" s="7" t="s">
-        <v>272</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M51" s="8" t="s">
-        <v>273</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M52" s="7" t="s">
-        <v>274</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M53" s="8" t="s">
-        <v>275</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M54" s="7" t="s">
-        <v>276</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M55" s="9" t="s">
-        <v>277</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -5130,31 +2905,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>278</v>
+        <v>126</v>
       </c>
       <c r="G2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>279</v>
+        <v>127</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>280</v>
+        <v>128</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>281</v>
+        <v>129</v>
       </c>
       <c r="P2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>282</v>
+        <v>130</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>283</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5162,31 +2937,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>284</v>
+        <v>132</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>286</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="P3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>288</v>
+        <v>134</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>289</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5194,31 +2963,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>290</v>
+        <v>136</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>292</v>
-      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>293</v>
+        <v>137</v>
       </c>
       <c r="P4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>294</v>
+        <v>138</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>295</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5226,16 +2991,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>296</v>
+        <v>140</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5243,33 +3002,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>299</v>
+        <v>141</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>301</v>
-      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>302</v>
+        <v>142</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>6</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5277,36 +3026,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>305</v>
+        <v>143</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>307</v>
-      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>6</v>
@@ -5317,22 +3056,18 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>311</v>
+        <v>145</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>313</v>
-      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>314</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5340,22 +3075,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>315</v>
+        <v>147</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>317</v>
-      </c>
       <c r="L11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5363,22 +3092,18 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>319</v>
+        <v>149</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>321</v>
-      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
       <c r="L12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>322</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5386,22 +3111,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>323</v>
+        <v>151</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>325</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>326</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5409,33 +3128,23 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>327</v>
+        <v>153</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>329</v>
-      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>330</v>
+        <v>154</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>14</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5443,33 +3152,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>333</v>
+        <v>155</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>335</v>
-      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>336</v>
+        <v>156</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>16</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5477,36 +3176,26 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>339</v>
+        <v>157</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>341</v>
-      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>342</v>
+        <v>158</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>344</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>6</v>
@@ -5517,22 +3206,18 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>345</v>
+        <v>159</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>347</v>
-      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
       <c r="L20" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>348</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5540,22 +3225,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>349</v>
+        <v>161</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>351</v>
-      </c>
       <c r="L21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>352</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5564,34 +3243,24 @@
       <c r="G22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>354</v>
-      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
       <c r="L22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>355</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>357</v>
-      </c>
       <c r="L23" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>358</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5600,22 +3269,12 @@
       <c r="G24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>360</v>
-      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G25" s="1" t="n">
         <v>24</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5624,22 +3283,12 @@
       <c r="G26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>364</v>
-      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G27" s="1" t="n">
         <v>26</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5648,14 +3297,10 @@
       <c r="G28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>368</v>
-      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
       <c r="L28" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>6</v>
@@ -5665,17 +3310,11 @@
       <c r="G29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>370</v>
-      </c>
       <c r="L29" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>371</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5684,22 +3323,12 @@
       <c r="G30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>373</v>
-      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G31" s="1" t="n">
         <v>30</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5708,22 +3337,12 @@
       <c r="G32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>377</v>
-      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G33" s="1" t="n">
         <v>32</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5732,22 +3351,12 @@
       <c r="G34" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>381</v>
-      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G35" s="1" t="n">
         <v>34</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5756,22 +3365,12 @@
       <c r="G36" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>385</v>
-      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G37" s="1" t="n">
         <v>36</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5780,14 +3379,10 @@
       <c r="G38" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>389</v>
-      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
       <c r="L38" s="2" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>6</v>
@@ -5797,17 +3392,11 @@
       <c r="G39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="H39" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>391</v>
-      </c>
       <c r="L39" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>392</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5816,78 +3405,74 @@
       <c r="G40" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>394</v>
-      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
       <c r="L40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>395</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L41" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>396</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L42" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>397</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M47" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M48" s="7" t="s">
-        <v>398</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M49" s="8" t="s">
-        <v>399</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M50" s="7" t="s">
-        <v>400</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M51" s="8" t="s">
-        <v>401</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M52" s="7" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M53" s="8" t="s">
-        <v>403</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M54" s="7" t="s">
-        <v>404</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M55" s="9" t="s">
-        <v>405</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5967,31 +3552,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>406</v>
+        <v>178</v>
       </c>
       <c r="G2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>407</v>
+        <v>179</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>408</v>
+        <v>180</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>409</v>
+        <v>181</v>
       </c>
       <c r="P2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>410</v>
+        <v>182</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>411</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5999,31 +3584,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>412</v>
+        <v>184</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>414</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>415</v>
+        <v>185</v>
       </c>
       <c r="P3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>416</v>
+        <v>186</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>417</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6031,31 +3610,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>418</v>
+        <v>188</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>420</v>
-      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>421</v>
+        <v>189</v>
       </c>
       <c r="P4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>422</v>
+        <v>190</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>423</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6063,16 +3638,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>424</v>
+        <v>192</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6080,33 +3649,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>427</v>
+        <v>193</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>429</v>
-      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>430</v>
+        <v>194</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>6</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6114,36 +3673,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>433</v>
+        <v>195</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>435</v>
-      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>436</v>
+        <v>196</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>438</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>6</v>
@@ -6154,22 +3703,18 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>439</v>
+        <v>197</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>441</v>
-      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>442</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6177,22 +3722,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>443</v>
+        <v>199</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>445</v>
-      </c>
       <c r="L11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>446</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6200,22 +3739,18 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>447</v>
+        <v>201</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>449</v>
-      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
       <c r="L12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>450</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6223,22 +3758,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>451</v>
+        <v>203</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>453</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>454</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6246,33 +3775,23 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>455</v>
+        <v>205</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>457</v>
-      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>458</v>
+        <v>206</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>14</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6280,33 +3799,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>461</v>
+        <v>207</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>463</v>
-      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>464</v>
+        <v>208</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>16</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6314,36 +3823,26 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>467</v>
+        <v>209</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>469</v>
-      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>470</v>
+        <v>210</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>472</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>6</v>
@@ -6354,22 +3853,18 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>473</v>
+        <v>211</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>475</v>
-      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
       <c r="L20" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>476</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6377,22 +3872,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>477</v>
+        <v>213</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>479</v>
-      </c>
       <c r="L21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>480</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6401,34 +3890,24 @@
       <c r="G22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>482</v>
-      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
       <c r="L22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>483</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>485</v>
-      </c>
       <c r="L23" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>486</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6437,22 +3916,12 @@
       <c r="G24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>488</v>
-      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G25" s="1" t="n">
         <v>24</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6461,22 +3930,12 @@
       <c r="G26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>492</v>
-      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G27" s="1" t="n">
         <v>26</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6485,14 +3944,10 @@
       <c r="G28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>496</v>
-      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
       <c r="L28" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>6</v>
@@ -6502,17 +3957,11 @@
       <c r="G29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>498</v>
-      </c>
       <c r="L29" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>499</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6521,22 +3970,12 @@
       <c r="G30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>501</v>
-      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G31" s="1" t="n">
         <v>30</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6545,22 +3984,12 @@
       <c r="G32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>505</v>
-      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G33" s="1" t="n">
         <v>32</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6569,22 +3998,12 @@
       <c r="G34" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>509</v>
-      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G35" s="1" t="n">
         <v>34</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>510</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6593,22 +4012,12 @@
       <c r="G36" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>513</v>
-      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G37" s="1" t="n">
         <v>36</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6617,14 +4026,10 @@
       <c r="G38" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>517</v>
-      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
       <c r="L38" s="2" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>6</v>
@@ -6634,17 +4039,11 @@
       <c r="G39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="H39" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>519</v>
-      </c>
       <c r="L39" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>520</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6653,87 +4052,74 @@
       <c r="G40" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>522</v>
-      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
       <c r="L40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G41" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>524</v>
-      </c>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L41" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>525</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L42" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>526</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M47" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M48" s="7" t="s">
-        <v>527</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M49" s="8" t="s">
-        <v>528</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M50" s="7" t="s">
-        <v>529</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M51" s="8" t="s">
-        <v>530</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M52" s="7" t="s">
-        <v>531</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M53" s="8" t="s">
-        <v>532</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M54" s="7" t="s">
-        <v>533</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M55" s="9" t="s">
-        <v>534</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6813,31 +4199,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>535</v>
+        <v>230</v>
       </c>
       <c r="G2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>536</v>
+        <v>231</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>537</v>
+        <v>232</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>538</v>
+        <v>233</v>
       </c>
       <c r="P2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>539</v>
+        <v>234</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>540</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6845,31 +4231,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>541</v>
+        <v>236</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>543</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>544</v>
+        <v>237</v>
       </c>
       <c r="P3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>545</v>
+        <v>238</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>546</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6877,31 +4257,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>547</v>
+        <v>240</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>549</v>
-      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>550</v>
+        <v>241</v>
       </c>
       <c r="P4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>551</v>
+        <v>242</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>552</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6909,16 +4285,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>553</v>
+        <v>244</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6926,33 +4296,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>556</v>
+        <v>245</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>558</v>
-      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>559</v>
+        <v>246</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>6</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6960,36 +4320,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>562</v>
+        <v>247</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>564</v>
-      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>565</v>
+        <v>248</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>567</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>6</v>
@@ -7000,22 +4350,18 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>568</v>
+        <v>249</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>570</v>
-      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>571</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7023,22 +4369,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>572</v>
+        <v>251</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>574</v>
-      </c>
       <c r="L11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>575</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7046,22 +4386,18 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>576</v>
+        <v>253</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>578</v>
-      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
       <c r="L12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>579</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7069,22 +4405,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>580</v>
+        <v>255</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>581</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>582</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>583</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7092,33 +4422,23 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>584</v>
+        <v>257</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>586</v>
-      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>587</v>
+        <v>258</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>14</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>588</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7126,33 +4446,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>590</v>
+        <v>259</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>592</v>
-      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>593</v>
+        <v>260</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>16</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>594</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7160,36 +4470,26 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>596</v>
+        <v>261</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>598</v>
-      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>599</v>
+        <v>262</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>600</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>601</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>6</v>
@@ -7200,22 +4500,18 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>602</v>
+        <v>263</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>604</v>
-      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
       <c r="L20" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>605</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7223,22 +4519,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>606</v>
+        <v>265</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>607</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>608</v>
-      </c>
       <c r="L21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>609</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7247,34 +4537,24 @@
       <c r="G22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>611</v>
-      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
       <c r="L22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>612</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>614</v>
-      </c>
       <c r="L23" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>615</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7283,22 +4563,12 @@
       <c r="G24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>617</v>
-      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G25" s="1" t="n">
         <v>24</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7307,22 +4577,12 @@
       <c r="G26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>621</v>
-      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G27" s="1" t="n">
         <v>26</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7331,14 +4591,10 @@
       <c r="G28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>625</v>
-      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
       <c r="L28" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>6</v>
@@ -7348,17 +4604,11 @@
       <c r="G29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>626</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>627</v>
-      </c>
       <c r="L29" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>628</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7367,22 +4617,12 @@
       <c r="G30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>630</v>
-      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G31" s="1" t="n">
         <v>30</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7391,22 +4631,12 @@
       <c r="G32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>634</v>
-      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G33" s="1" t="n">
         <v>32</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7415,22 +4645,12 @@
       <c r="G34" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>638</v>
-      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G35" s="1" t="n">
         <v>34</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7439,22 +4659,12 @@
       <c r="G36" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>642</v>
-      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G37" s="1" t="n">
         <v>36</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>643</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7463,14 +4673,10 @@
       <c r="G38" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>646</v>
-      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
       <c r="L38" s="2" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>6</v>
@@ -7480,17 +4686,11 @@
       <c r="G39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="H39" s="0" t="s">
-        <v>647</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>648</v>
-      </c>
       <c r="L39" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>649</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7499,78 +4699,74 @@
       <c r="G40" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>651</v>
-      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
       <c r="L40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>652</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L41" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>653</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L42" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>654</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M47" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M48" s="7" t="s">
-        <v>655</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M49" s="8" t="s">
-        <v>656</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M50" s="7" t="s">
-        <v>657</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M51" s="8" t="s">
-        <v>658</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M52" s="7" t="s">
-        <v>659</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M53" s="8" t="s">
-        <v>660</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M54" s="7" t="s">
-        <v>661</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M55" s="9" t="s">
-        <v>534</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -7589,7 +4785,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -7650,31 +4846,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>662</v>
+        <v>281</v>
       </c>
       <c r="G2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>663</v>
+        <v>282</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>664</v>
+        <v>283</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>665</v>
+        <v>284</v>
       </c>
       <c r="P2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>666</v>
+        <v>285</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>667</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7682,31 +4878,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>668</v>
+        <v>287</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>669</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>670</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>671</v>
+        <v>288</v>
       </c>
       <c r="P3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>672</v>
+        <v>289</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>673</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7714,31 +4904,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>674</v>
+        <v>291</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>676</v>
-      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>677</v>
+        <v>292</v>
       </c>
       <c r="P4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>678</v>
+        <v>293</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>679</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7746,16 +4932,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>680</v>
+        <v>295</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>681</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7763,33 +4943,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>683</v>
+        <v>296</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>685</v>
-      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>686</v>
+        <v>297</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>6</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>687</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7797,36 +4967,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>689</v>
+        <v>298</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>691</v>
-      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>692</v>
+        <v>299</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>693</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>694</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>6</v>
@@ -7837,22 +4997,18 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>695</v>
+        <v>300</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>697</v>
-      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>698</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7860,22 +5016,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>699</v>
+        <v>302</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>700</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>701</v>
-      </c>
       <c r="L11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>702</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7883,22 +5033,18 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>703</v>
+        <v>304</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>705</v>
-      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
       <c r="L12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>706</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7906,22 +5052,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>707</v>
+        <v>306</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>709</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>710</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7929,33 +5069,23 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>711</v>
+        <v>308</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>713</v>
-      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>714</v>
+        <v>309</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>14</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7963,33 +5093,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>717</v>
+        <v>310</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>719</v>
-      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>720</v>
+        <v>311</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>16</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7997,36 +5117,26 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>723</v>
+        <v>312</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>725</v>
-      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>726</v>
+        <v>313</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>727</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>728</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>6</v>
@@ -8037,22 +5147,18 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>729</v>
+        <v>314</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>731</v>
-      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
       <c r="L20" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>732</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8060,22 +5166,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>733</v>
+        <v>316</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>735</v>
-      </c>
       <c r="L21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>736</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8084,34 +5184,24 @@
       <c r="G22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>738</v>
-      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
       <c r="L22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>739</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>741</v>
-      </c>
       <c r="L23" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>742</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8120,22 +5210,12 @@
       <c r="G24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>744</v>
-      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G25" s="1" t="n">
         <v>24</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>745</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8144,22 +5224,12 @@
       <c r="G26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>748</v>
-      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G27" s="1" t="n">
         <v>26</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8168,14 +5238,10 @@
       <c r="G28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>752</v>
-      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
       <c r="L28" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>6</v>
@@ -8185,17 +5251,11 @@
       <c r="G29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>753</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>754</v>
-      </c>
       <c r="L29" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>755</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8204,22 +5264,12 @@
       <c r="G30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>757</v>
-      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G31" s="1" t="n">
         <v>30</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8228,22 +5278,12 @@
       <c r="G32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>761</v>
-      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G33" s="1" t="n">
         <v>32</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>762</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8252,22 +5292,12 @@
       <c r="G34" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>765</v>
-      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G35" s="1" t="n">
         <v>34</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>766</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8276,22 +5306,12 @@
       <c r="G36" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>769</v>
-      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G37" s="1" t="n">
         <v>36</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>770</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8300,14 +5320,10 @@
       <c r="G38" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>773</v>
-      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
       <c r="L38" s="2" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>6</v>
@@ -8317,17 +5333,11 @@
       <c r="G39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="H39" s="0" t="s">
-        <v>774</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>775</v>
-      </c>
       <c r="L39" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>776</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8336,101 +5346,85 @@
       <c r="G40" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>778</v>
-      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
       <c r="L40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>779</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L41" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>780</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L42" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M47" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M48" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="O48" s="7" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>325</v>
+      </c>
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M49" s="8" t="s">
-        <v>784</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>326</v>
+      </c>
+      <c r="O49" s="8"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M50" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>327</v>
+      </c>
+      <c r="O50" s="7"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M51" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>328</v>
+      </c>
+      <c r="O51" s="8"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M52" s="7" t="s">
-        <v>790</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>329</v>
+      </c>
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M53" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="O53" s="8" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>330</v>
+      </c>
+      <c r="O53" s="8"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M54" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>787</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="O54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M55" s="9" t="s">
-        <v>795</v>
-      </c>
-    </row>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -8508,31 +5502,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>796</v>
+        <v>333</v>
       </c>
       <c r="G2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>797</v>
+        <v>334</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>798</v>
+        <v>335</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>799</v>
+        <v>336</v>
       </c>
       <c r="P2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>800</v>
+        <v>337</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>801</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8540,31 +5534,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>802</v>
+        <v>339</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>803</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>804</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>805</v>
+        <v>340</v>
       </c>
       <c r="P3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>806</v>
+        <v>341</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>807</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8572,31 +5560,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>808</v>
+        <v>343</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>809</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>810</v>
-      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>811</v>
+        <v>344</v>
       </c>
       <c r="P4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>812</v>
+        <v>345</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>813</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8604,16 +5588,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>814</v>
+        <v>347</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8621,33 +5599,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>817</v>
+        <v>348</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>819</v>
-      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>820</v>
+        <v>349</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>6</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>821</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8655,36 +5623,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>823</v>
+        <v>350</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>825</v>
-      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>826</v>
+        <v>351</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>827</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>828</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>6</v>
@@ -8695,22 +5653,18 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>829</v>
+        <v>352</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>831</v>
-      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>832</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8718,22 +5672,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>833</v>
+        <v>354</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>834</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>835</v>
-      </c>
       <c r="L11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>836</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8741,22 +5689,18 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>837</v>
+        <v>356</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>839</v>
-      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
       <c r="L12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>840</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8764,22 +5708,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>841</v>
+        <v>358</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>842</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>843</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>844</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8787,33 +5725,23 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>845</v>
+        <v>360</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>847</v>
-      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>848</v>
+        <v>361</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>14</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>849</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8821,33 +5749,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>851</v>
+        <v>362</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>853</v>
-      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>854</v>
+        <v>363</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>16</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>855</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8855,36 +5773,26 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>857</v>
+        <v>364</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>858</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>859</v>
-      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>860</v>
+        <v>365</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>861</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>862</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>6</v>
@@ -8895,22 +5803,18 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>863</v>
+        <v>366</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>865</v>
-      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
       <c r="L20" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>866</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8918,22 +5822,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>867</v>
+        <v>368</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>868</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>869</v>
-      </c>
       <c r="L21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>870</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8942,17 +5840,13 @@
       <c r="G22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>872</v>
-      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
       <c r="L22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>873</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8960,17 +5854,11 @@
       <c r="G23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>874</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>875</v>
-      </c>
       <c r="L23" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>876</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8979,23 +5867,13 @@
       <c r="G24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>877</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>878</v>
-      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="G25" s="1" t="n">
         <v>24</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>879</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9004,23 +5882,13 @@
       <c r="G26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>881</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>882</v>
-      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="G27" s="1" t="n">
         <v>26</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>883</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9029,14 +5897,10 @@
       <c r="G28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>885</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>886</v>
-      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
       <c r="L28" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>6</v>
@@ -9047,17 +5911,11 @@
       <c r="G29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>887</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>888</v>
-      </c>
       <c r="L29" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>889</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9066,23 +5924,13 @@
       <c r="G30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>891</v>
-      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="G31" s="1" t="n">
         <v>30</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>892</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9091,23 +5939,13 @@
       <c r="G32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>895</v>
-      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="G33" s="1" t="n">
         <v>32</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>896</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9116,23 +5954,13 @@
       <c r="G34" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>899</v>
-      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="G35" s="1" t="n">
         <v>34</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>900</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9141,23 +5969,13 @@
       <c r="G36" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>902</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>903</v>
-      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="G37" s="1" t="n">
         <v>36</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>904</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9166,14 +5984,10 @@
       <c r="G38" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>906</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>907</v>
-      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
       <c r="L38" s="2" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>6</v>
@@ -9184,17 +5998,11 @@
       <c r="G39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="H39" s="0" t="s">
-        <v>908</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>909</v>
-      </c>
       <c r="L39" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>910</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9203,78 +6011,74 @@
       <c r="G40" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>912</v>
-      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
       <c r="L40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>913</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L41" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>914</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L42" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>915</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M47" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M48" s="7" t="s">
-        <v>916</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M49" s="8" t="s">
-        <v>917</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M50" s="7" t="s">
-        <v>918</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M51" s="8" t="s">
-        <v>919</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M52" s="7" t="s">
-        <v>920</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M53" s="8" t="s">
-        <v>921</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M54" s="7" t="s">
-        <v>922</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M55" s="9" t="s">
-        <v>923</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -9354,31 +6158,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>924</v>
+        <v>385</v>
       </c>
       <c r="G2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>925</v>
+        <v>386</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>926</v>
+        <v>387</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>927</v>
+        <v>388</v>
       </c>
       <c r="P2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>928</v>
+        <v>389</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>929</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9386,31 +6190,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>930</v>
+        <v>391</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>931</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>932</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>933</v>
+        <v>392</v>
       </c>
       <c r="P3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>934</v>
+        <v>393</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>935</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9418,31 +6216,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>936</v>
+        <v>395</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>938</v>
-      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>939</v>
+        <v>396</v>
       </c>
       <c r="P4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>940</v>
+        <v>397</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>941</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9450,16 +6244,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>942</v>
+        <v>399</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>943</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9467,33 +6255,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>945</v>
+        <v>400</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>946</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>947</v>
-      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>948</v>
+        <v>401</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>6</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>949</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9501,36 +6279,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>951</v>
+        <v>402</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>952</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>953</v>
-      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>954</v>
+        <v>403</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>955</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>956</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>6</v>
@@ -9541,22 +6309,18 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>957</v>
+        <v>404</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>958</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>959</v>
-      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>960</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9564,22 +6328,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>961</v>
+        <v>406</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>962</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>963</v>
-      </c>
       <c r="L11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>964</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9587,22 +6345,18 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>965</v>
+        <v>408</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>966</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>967</v>
-      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
       <c r="L12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>968</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9610,22 +6364,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>969</v>
+        <v>410</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>970</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>971</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>972</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9633,33 +6381,23 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>973</v>
+        <v>412</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>974</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>975</v>
-      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>976</v>
+        <v>413</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>14</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9667,33 +6405,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>979</v>
+        <v>414</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>980</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>981</v>
-      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>982</v>
+        <v>415</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>16</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>983</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9701,36 +6429,26 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>985</v>
+        <v>416</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>986</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>987</v>
-      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>988</v>
+        <v>417</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>989</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>990</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>6</v>
@@ -9741,22 +6459,18 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>991</v>
+        <v>418</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>993</v>
-      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
       <c r="L20" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>994</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9764,22 +6478,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>995</v>
+        <v>420</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>996</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>997</v>
-      </c>
       <c r="L21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>998</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9788,17 +6496,13 @@
       <c r="G22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>999</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>1000</v>
-      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
       <c r="L22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>1001</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9806,17 +6510,11 @@
       <c r="G23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>1003</v>
-      </c>
       <c r="L23" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>1004</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9825,23 +6523,13 @@
       <c r="G24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>1006</v>
-      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="G25" s="1" t="n">
         <v>24</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9850,23 +6538,13 @@
       <c r="G26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>1010</v>
-      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="G27" s="1" t="n">
         <v>26</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>1011</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9875,14 +6553,10 @@
       <c r="G28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>1013</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>1014</v>
-      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
       <c r="L28" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>6</v>
@@ -9893,17 +6567,11 @@
       <c r="G29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>1016</v>
-      </c>
       <c r="L29" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>1017</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9912,23 +6580,13 @@
       <c r="G30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>1018</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>1019</v>
-      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1"/>
       <c r="G31" s="1" t="n">
         <v>30</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9937,23 +6595,13 @@
       <c r="G32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>1022</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>1023</v>
-      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="G33" s="1" t="n">
         <v>32</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9962,23 +6610,13 @@
       <c r="G34" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>1027</v>
-      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="G35" s="1" t="n">
         <v>34</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>1028</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9987,23 +6625,13 @@
       <c r="G36" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>1030</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>1031</v>
-      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="G37" s="1" t="n">
         <v>36</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>1032</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10012,14 +6640,10 @@
       <c r="G38" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>1034</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>1035</v>
-      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
       <c r="L38" s="2" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>6</v>
@@ -10030,17 +6654,11 @@
       <c r="G39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="H39" s="0" t="s">
-        <v>1036</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>1037</v>
-      </c>
       <c r="L39" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>1038</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10049,78 +6667,74 @@
       <c r="G40" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>1039</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>1040</v>
-      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
       <c r="L40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>1041</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L41" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>1042</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L42" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>1043</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M47" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M48" s="7" t="s">
-        <v>1044</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M49" s="8" t="s">
-        <v>1045</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M50" s="7" t="s">
-        <v>1046</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M51" s="8" t="s">
-        <v>1047</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M52" s="7" t="s">
-        <v>1048</v>
+        <v>433</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M53" s="8" t="s">
-        <v>1049</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M54" s="7" t="s">
-        <v>1050</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M55" s="9" t="s">
-        <v>1051</v>
+        <v>436</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
